--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/sync_job_def.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/sync_job_def.xlsx
@@ -166,7 +166,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="@"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -248,7 +248,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -259,6 +259,14 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -281,7 +289,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H:H"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -311,24 +319,24 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H2" s="1" t="n">
@@ -337,19 +345,19 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="A3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H3" s="1" t="n">
@@ -358,19 +366,19 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="A4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H4" s="1" t="n">
@@ -379,19 +387,19 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H5" s="1" t="n">
@@ -400,19 +408,19 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="A6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="1" t="n">
@@ -421,22 +429,22 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="D7" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H7" s="1" t="n">
@@ -445,19 +453,19 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="A8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C8" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D8" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H8" s="1" t="n">
@@ -466,19 +474,19 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="A9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="0" t="s">
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="D9" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H9" s="1" t="n">
@@ -487,19 +495,19 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="A10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="0" t="s">
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H10" s="1" t="n">
@@ -508,19 +516,19 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="A11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="0" t="s">
+      <c r="D11" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H11" s="1" t="n">
@@ -529,19 +537,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="A12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="0" t="s">
+      <c r="D12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H12" s="1" t="n">
@@ -550,19 +558,19 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="A13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="0" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="0" t="s">
+      <c r="D13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
       <c r="H13" s="1" t="n">

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/sync_job_def.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/sync_job_def.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="47">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t xml:space="preserve">0 0 11 * * ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">PDS_J00003</t>
@@ -289,7 +292,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H:H"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -339,9 +342,8 @@
       <c r="F2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -349,20 +351,19 @@
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,20 +371,19 @@
         <v>8</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -391,20 +391,19 @@
         <v>8</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H5" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -412,20 +411,19 @@
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H6" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -433,13 +431,13 @@
         <v>8</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>9</v>
@@ -447,9 +445,8 @@
       <c r="F7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H7" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,20 +454,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H8" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,20 +474,19 @@
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,20 +494,19 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H10" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,20 +514,19 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H11" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -541,20 +534,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H12" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -562,20 +554,19 @@
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="H13" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
